--- a/express/public/MonsterBall/Monster ball_ball.xlsx
+++ b/express/public/MonsterBall/Monster ball_ball.xlsx
@@ -355,7 +355,7 @@
         <v>5.0</v>
       </c>
       <c r="F5" s="10">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="G5" s="10">
         <v>1.0</v>
